--- a/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST_since_2022/ifo_qoq_matched_error_tables_first_since_2022.xlsx
+++ b/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST_since_2022/ifo_qoq_matched_error_tables_first_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.08631806217238831</v>
+        <v>0.08696016040226752</v>
       </c>
       <c r="C2">
-        <v>0.2336421420325596</v>
+        <v>0.2244626349384274</v>
       </c>
       <c r="D2">
-        <v>0.06595692484857323</v>
+        <v>0.06217355075105529</v>
       </c>
       <c r="E2">
-        <v>0.256820802990282</v>
+        <v>0.2493462467153963</v>
       </c>
       <c r="F2">
-        <v>0.251011130289426</v>
+        <v>0.24189316101004</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3191591809342132</v>
+        <v>0.3031818451638543</v>
       </c>
       <c r="C3">
-        <v>0.3601883159103759</v>
+        <v>0.3412803276417196</v>
       </c>
       <c r="D3">
-        <v>0.1913636077169971</v>
+        <v>0.1783459041844743</v>
       </c>
       <c r="E3">
-        <v>0.4374512632476869</v>
+        <v>0.4223101990059846</v>
       </c>
       <c r="F3">
-        <v>0.311383114005238</v>
+        <v>0.3050817571715199</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.49989388838431</v>
+        <v>0.4726833070249565</v>
       </c>
       <c r="C4">
-        <v>0.527136136072701</v>
+        <v>0.4978299971988559</v>
       </c>
       <c r="D4">
-        <v>0.4889958929516733</v>
+        <v>0.4530240298790372</v>
       </c>
       <c r="E4">
-        <v>0.6992824128717047</v>
+        <v>0.6730705979903128</v>
       </c>
       <c r="F4">
-        <v>0.5107235437630047</v>
+        <v>0.4987257742493065</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.6506893700309587</v>
+        <v>0.6055399787264154</v>
       </c>
       <c r="C5">
-        <v>0.6540638722918746</v>
+        <v>0.6086332724655883</v>
       </c>
       <c r="D5">
-        <v>0.6432374788348348</v>
+        <v>0.5906225627394526</v>
       </c>
       <c r="E5">
-        <v>0.8020208718199514</v>
+        <v>0.7685197217635034</v>
       </c>
       <c r="F5">
-        <v>0.4917569570630432</v>
+        <v>0.4942695954492832</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.602306942498227</v>
+        <v>0.5882471822302764</v>
       </c>
       <c r="C6">
-        <v>0.602306942498227</v>
+        <v>0.5882471822302764</v>
       </c>
       <c r="D6">
-        <v>0.4561603031141021</v>
+        <v>0.4329084706557275</v>
       </c>
       <c r="E6">
-        <v>0.6753964044278753</v>
+        <v>0.6579578030966177</v>
       </c>
       <c r="F6">
-        <v>0.3221225614447249</v>
+        <v>0.3091295773284307</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.483548292318232</v>
+        <v>0.4671934630864089</v>
       </c>
       <c r="C7">
-        <v>0.486244680615872</v>
+        <v>0.4696202125542849</v>
       </c>
       <c r="D7">
-        <v>0.3032786508364065</v>
+        <v>0.2831907857527659</v>
       </c>
       <c r="E7">
-        <v>0.5507074094620541</v>
+        <v>0.5321567304401644</v>
       </c>
       <c r="F7">
-        <v>0.2795391963778858</v>
+        <v>0.2685786741804888</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.4074377044723811</v>
+        <v>0.3964777679756588</v>
       </c>
       <c r="C8">
-        <v>0.4274169702854169</v>
+        <v>0.4142371153650239</v>
       </c>
       <c r="D8">
-        <v>0.2256024426792141</v>
+        <v>0.2111306574106052</v>
       </c>
       <c r="E8">
-        <v>0.4749762548582973</v>
+        <v>0.4594895618081059</v>
       </c>
       <c r="F8">
-        <v>0.260980480175359</v>
+        <v>0.2463291325150163</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4681686234335448</v>
+        <v>0.430140519527954</v>
       </c>
       <c r="C9">
-        <v>0.4681686234335448</v>
+        <v>0.430140519527954</v>
       </c>
       <c r="D9">
-        <v>0.242054265453951</v>
+        <v>0.2113118878782925</v>
       </c>
       <c r="E9">
-        <v>0.4919901070691879</v>
+        <v>0.4596867279771002</v>
       </c>
       <c r="F9">
-        <v>0.1690872758603184</v>
+        <v>0.1776210167919809</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3899698132051196</v>
+        <v>0.3316630433627284</v>
       </c>
       <c r="C10">
-        <v>0.3899698132051196</v>
+        <v>0.3316630433627284</v>
       </c>
       <c r="D10">
-        <v>0.1551215778692758</v>
+        <v>0.1188298149235608</v>
       </c>
       <c r="E10">
-        <v>0.3938547674832384</v>
+        <v>0.344717007012362</v>
       </c>
       <c r="F10">
-        <v>0.0780400238088108</v>
+        <v>0.1150832780485532</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7">
